--- a/Data/Jihong/DPV Analysis/Analysis Files/aptamer_sensor_1.xlsx
+++ b/Data/Jihong/DPV Analysis/Analysis Files/aptamer_sensor_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,12 +433,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="20" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="24" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="24" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="35" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="13" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="19" bestFit="1" customWidth="1" min="6" max="6"/>
     <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -477,163 +477,151 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.004</v>
+        <v>-0.1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.06471609523809532</v>
+        <v>-0.1003582857142859</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-0.06471609523809534</v>
+        <v>-0.1003582857142859</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.387778780781446e-17</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.132</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.05968395284327317</v>
+        <v>-0.03257754578754576</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.008</v>
+        <v>-0.104</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.1092359523809524</v>
+        <v>-0.0923230952380953</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-0.06513183310217301</v>
+        <v>-0.09232309523809534</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.04410411927877943</v>
+        <v>4.163336342344337e-17</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>-0.052</v>
+        <v>-0.228</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-0.03843238372630599</v>
+        <v>-0.6880896959706964</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.108</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.1252315238095238</v>
+        <v>-0.09462609523809531</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.06554757096625068</v>
+        <v>-0.09251814652014663</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.05968395284327317</v>
+        <v>-0.002107948717948685</v>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="n">
-        <v>-0.092</v>
+        <v>-0.328</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>-0.03166624318076736</v>
+        <v>-0.0136228424908425</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.016</v>
+        <v>-0.112</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.1227324761904763</v>
+        <v>-0.1025979523809525</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.06596330883032835</v>
+        <v>-0.0927131978021979</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.05676916736014791</v>
+        <v>-0.009884754578754568</v>
       </c>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.396</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>-0.04824629311141926</v>
+        <v>-0.02471030402930402</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.02</v>
+        <v>-0.116</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-0.1139321904761905</v>
+        <v>-0.1102676190476191</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.06637904669440602</v>
+        <v>-0.09290824908424919</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.0475531437817845</v>
-      </c>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="n">
-        <v>-0.228</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>-0.6984619653259362</v>
-      </c>
+        <v>-0.01735936996336994</v>
+      </c>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.024</v>
+        <v>-0.12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-0.1084011428571429</v>
+        <v>-0.1149361904761905</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.06679478455848369</v>
+        <v>-0.09310330036630048</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.04160635829865923</v>
-      </c>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="n">
-        <v>-0.328</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>-0.01847794729542301</v>
-      </c>
+        <v>-0.02183289010989005</v>
+      </c>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.028</v>
+        <v>-0.124</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-0.1033344761904762</v>
+        <v>-0.1169388095238096</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.06721052242256136</v>
+        <v>-0.09329835164835175</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.03612395376791487</v>
-      </c>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="n">
-        <v>-0.396</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>-0.02581373693943594</v>
-      </c>
+        <v>-0.02364045787545783</v>
+      </c>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
+      <c r="G8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.032</v>
+        <v>-0.128</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-0.1022655238095238</v>
+        <v>-0.1230025714285715</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.06762626028663903</v>
+        <v>-0.09349340293040304</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.03463926352288478</v>
+        <v>-0.02950916849816845</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -641,16 +629,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.036</v>
+        <v>-0.132</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-0.0964642857142857</v>
+        <v>-0.1262660000000001</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.0680419981507167</v>
+        <v>-0.09368845421245431</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.028422287563569</v>
+        <v>-0.03257754578754576</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -658,16 +646,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.04000000000000001</v>
+        <v>-0.136</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-0.09493480952380953</v>
+        <v>-0.1249312380952382</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-0.06845773601479437</v>
+        <v>-0.0938835054945056</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.02647707350901517</v>
+        <v>-0.03104773260073258</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -675,16 +663,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.044</v>
+        <v>-0.14</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-0.0941352857142857</v>
+        <v>-0.1299282380952382</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-0.06887347387887204</v>
+        <v>-0.09407855677655688</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.02526181183541366</v>
+        <v>-0.0358496813186813</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -692,16 +680,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.048</v>
+        <v>-0.144</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-0.1019359047619048</v>
+        <v>-0.138794380952381</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.06928921174294969</v>
+        <v>-0.09427360805860815</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.03264669301895508</v>
+        <v>-0.04452077289377288</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -709,16 +697,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.052</v>
+        <v>-0.148</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-0.1081373333333333</v>
+        <v>-0.1509994761904763</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-0.06970494960702736</v>
+        <v>-0.09446865934065944</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.03843238372630599</v>
+        <v>-0.05653081684981683</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -726,16 +714,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.05600000000000001</v>
+        <v>-0.152</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-0.1079396666666667</v>
+        <v>-0.1648690476190477</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-0.07012068747110503</v>
+        <v>-0.09466371062271073</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.03781897919556163</v>
+        <v>-0.07020533699633696</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -743,16 +731,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.06</v>
+        <v>-0.156</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-0.1057364285714286</v>
+        <v>-0.1777371904761905</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-0.0705364253351827</v>
+        <v>-0.094858761904762</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.03520000323624585</v>
+        <v>-0.08287842857142852</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -760,16 +748,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.064</v>
+        <v>-0.16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-0.1042702857142857</v>
+        <v>-0.1898694761904763</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-0.07095216319926037</v>
+        <v>-0.09505381318681329</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.03331812251502531</v>
+        <v>-0.09481566300366297</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -777,16 +765,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.068</v>
+        <v>-0.164</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-0.09933228571428569</v>
+        <v>-0.2091355714285716</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-0.07136790106333804</v>
+        <v>-0.09524886446886457</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.02796438465094765</v>
+        <v>-0.113886706959707</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -794,16 +782,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.07200000000000001</v>
+        <v>-0.168</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-0.09933109523809525</v>
+        <v>-0.2264651904761906</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-0.07178363892741571</v>
+        <v>-0.09544391575091585</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.02754745631067954</v>
+        <v>-0.1310212747252748</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -811,16 +799,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.07600000000000001</v>
+        <v>-0.172</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-0.09899480952380955</v>
+        <v>-0.2558013333333334</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-0.07219937679149338</v>
+        <v>-0.09563896703296713</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.02679543273231617</v>
+        <v>-0.1601623663003663</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -828,16 +816,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.08</v>
+        <v>-0.176</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-0.09972961904761907</v>
+        <v>-0.2912649047619049</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-0.07261511465557105</v>
+        <v>-0.09583401831501842</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.02711450439204802</v>
+        <v>-0.1954308864468865</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -845,16 +833,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.08400000000000001</v>
+        <v>-0.18</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-0.101396380952381</v>
+        <v>-0.3283282380952383</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-0.07303085251964872</v>
+        <v>-0.09602906959706969</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.02836552843273225</v>
+        <v>-0.2322991684981686</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -862,16 +850,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.08800000000000001</v>
+        <v>-0.184</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-0.1029302857142857</v>
+        <v>-0.3706545238095241</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-0.07344659038372639</v>
+        <v>-0.09622412087912098</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.02948369533055931</v>
+        <v>-0.2744304029304032</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -879,16 +867,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.092</v>
+        <v>-0.188</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-0.1055285714285714</v>
+        <v>-0.4151173333333337</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-0.07386232824780406</v>
+        <v>-0.09641917216117227</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.03166624318076736</v>
+        <v>-0.3186981611721614</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -896,16 +884,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.096</v>
+        <v>-0.192</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-0.1027266666666667</v>
+        <v>-0.4572548571428574</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-0.07427806611188173</v>
+        <v>-0.09661422344322354</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.02844860055478496</v>
+        <v>-0.3606406336996338</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -913,16 +901,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.196</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-0.09572428571428572</v>
+        <v>-0.5047938571428574</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-0.0746938039759594</v>
+        <v>-0.09680927472527483</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.02103048173832632</v>
+        <v>-0.4079845824175826</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -930,16 +918,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.2</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-0.09652404761904762</v>
+        <v>-0.5566633809523812</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-0.07510954184003707</v>
+        <v>-0.09700432600732611</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.02141450577901055</v>
+        <v>-0.4596590549450551</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -947,16 +935,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.204</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-0.09759361904761907</v>
+        <v>-0.598001285714286</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-0.07552527970411474</v>
+        <v>-0.09719937728937739</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.02206833934350433</v>
+        <v>-0.5008019084249087</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -964,16 +952,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.208</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-0.1025979523809524</v>
+        <v>-0.6477351428571433</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-0.07594101756819241</v>
+        <v>-0.09739442857142867</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.02665693481275999</v>
+        <v>-0.5503407142857146</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -981,16 +969,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.212</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-0.1102676190476191</v>
+        <v>-0.69193680952381</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-0.07635675543227008</v>
+        <v>-0.09758947985347996</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.03391086361534898</v>
+        <v>-0.59434732967033</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -998,16 +986,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.216</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-0.1149361904761905</v>
+        <v>-0.7310049047619053</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-0.07677249329634775</v>
+        <v>-0.09778453113553123</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.03816369717984273</v>
+        <v>-0.6332203736263741</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -1015,16 +1003,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.22</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-0.1169388095238095</v>
+        <v>-0.7614664285714292</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-0.07718823116042542</v>
+        <v>-0.09797958241758252</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.03975057836338411</v>
+        <v>-0.6634868461538467</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1032,16 +1020,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.224</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-0.1230025714285714</v>
+        <v>-0.7785931428571433</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-0.07760396902450309</v>
+        <v>-0.09817463369963379</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.04539860240406833</v>
+        <v>-0.6804185091575096</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1049,16 +1037,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.228</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-0.126266</v>
+        <v>-0.7864593809523814</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-0.07801970688858076</v>
+        <v>-0.09836968498168508</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.04824629311141926</v>
+        <v>-0.6880896959706964</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1066,16 +1054,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.232</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-0.1249312380952381</v>
+        <v>-0.7779920952380956</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-0.07843544475265843</v>
+        <v>-0.09856473626373637</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.04649579334257969</v>
+        <v>-0.6794273589743592</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1083,16 +1071,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.236</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-0.1299282380952381</v>
+        <v>-0.7553999523809527</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-0.0788511826167361</v>
+        <v>-0.09875978754578764</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.05107705547850203</v>
+        <v>-0.6566401648351651</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1100,16 +1088,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.24</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-0.1387943809523809</v>
+        <v>-0.7150680476190481</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-0.07926692048081377</v>
+        <v>-0.09895483882783893</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.05952746047156718</v>
+        <v>-0.6161132087912091</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1117,16 +1105,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.244</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-0.1509994761904762</v>
+        <v>-0.6674000000000004</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-0.07968265834489144</v>
+        <v>-0.09914989010989021</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.07131681784558472</v>
+        <v>-0.5682501098901103</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1134,16 +1122,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.248</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-0.1648690476190476</v>
+        <v>-0.6067987619047623</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-0.08009839620896911</v>
+        <v>-0.09934494139194149</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.08477065141007847</v>
+        <v>-0.5074538205128208</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1151,16 +1139,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.252</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-0.1777371904761904</v>
+        <v>-0.5475984761904765</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-0.08051413407304678</v>
+        <v>-0.09953999267399277</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.09722305640314363</v>
+        <v>-0.4480584835164838</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1168,16 +1156,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.256</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-0.1898694761904762</v>
+        <v>-0.4853967619047622</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-0.08092987193712445</v>
+        <v>-0.09973504395604406</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.1089396042533517</v>
+        <v>-0.3856617179487182</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1185,16 +1173,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.26</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-0.2091355714285714</v>
+        <v>-0.4329298571428574</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-0.08134560980120212</v>
+        <v>-0.09993009523809533</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.1277899616273693</v>
+        <v>-0.332999761904762</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1202,16 +1190,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.264</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-0.2264651904761905</v>
+        <v>-0.3833263333333335</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-0.08176134766527979</v>
+        <v>-0.1001251465201466</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.1447038428109107</v>
+        <v>-0.283201186813187</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1219,16 +1207,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.268</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-0.2558013333333333</v>
+        <v>-0.3345901904761907</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-0.08217708552935746</v>
+        <v>-0.1003201978021979</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-0.1736242478039759</v>
+        <v>-0.2342699926739927</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1236,16 +1224,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.272</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-0.2912649047619048</v>
+        <v>-0.2913933809523812</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-0.08259282339343511</v>
+        <v>-0.1005152490842492</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.2086720813684697</v>
+        <v>-0.190878131868132</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1253,16 +1241,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.276</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-0.3283282380952381</v>
+        <v>-0.2507305714285716</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-0.08300856125751278</v>
+        <v>-0.1007103003663005</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-0.2453196768377254</v>
+        <v>-0.1500202710622712</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1270,16 +1258,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.28</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-0.3706545238095239</v>
+        <v>-0.220134523809524</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-0.08342429912159045</v>
+        <v>-0.1009053516483518</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.2872302246879335</v>
+        <v>-0.1192291721611722</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1287,16 +1275,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.284</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-0.4151173333333334</v>
+        <v>-0.1975348571428573</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-0.08384003698566812</v>
+        <v>-0.101100402930403</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.3312772963476653</v>
+        <v>-0.09643445421245427</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1304,16 +1292,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.288</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-0.4572548571428572</v>
+        <v>-0.1831366190476192</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-0.08425577484974579</v>
+        <v>-0.1012954542124543</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.3729990822931114</v>
+        <v>-0.08184116483516488</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1321,16 +1309,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.292</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-0.5047938571428571</v>
+        <v>-0.1707364761904763</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-0.08467151271382346</v>
+        <v>-0.1014905054945056</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.4201223444290336</v>
+        <v>-0.06924597069597073</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1338,16 +1326,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.296</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-0.5566633809523809</v>
+        <v>-0.1590033809523811</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-0.08508725057790113</v>
+        <v>-0.1016855567765569</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.4715761303744798</v>
+        <v>-0.05731782417582419</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1355,16 +1343,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.3</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-0.5980012857142858</v>
+        <v>-0.1470723333333335</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-0.0855029884419788</v>
+        <v>-0.1018806080586082</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.512498297272307</v>
+        <v>-0.04519172527472531</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1372,16 +1360,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.304</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-0.647735142857143</v>
+        <v>-0.1286033333333334</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-0.08591872630605647</v>
+        <v>-0.1020756593406594</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.5618164165510865</v>
+        <v>-0.026527673992674</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1389,16 +1377,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.308</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-0.6919368095238096</v>
+        <v>-0.1153968095238097</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-0.08633446417013414</v>
+        <v>-0.1022707106227107</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.6056023453536755</v>
+        <v>-0.01312609890109893</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1406,16 +1394,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.312</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-0.7310049047619048</v>
+        <v>-0.1061317142857144</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-0.08675020203421181</v>
+        <v>-0.102465761904762</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.644254702727693</v>
+        <v>-0.003665952380952395</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1423,16 +1411,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.316</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-0.7614664285714288</v>
+        <v>-0.1073355714285716</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-0.08716593989828948</v>
+        <v>-0.1026608131868133</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.6743004886731393</v>
+        <v>-0.004674758241758281</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1440,16 +1428,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.32</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-0.7785931428571429</v>
+        <v>-0.1124708571428573</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-0.08758167776236715</v>
+        <v>-0.1028558644688646</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.6910114650947757</v>
+        <v>-0.009614992673992698</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1457,16 +1445,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.324</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-0.786459380952381</v>
+        <v>-0.1160700000000001</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-0.08799741562644482</v>
+        <v>-0.1030509157509159</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.6984619653259362</v>
+        <v>-0.01301908424908427</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1474,16 +1462,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.328</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-0.7779920952380952</v>
+        <v>-0.1168688095238096</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-0.08841315349052249</v>
+        <v>-0.1032459670329671</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.6895789417475727</v>
+        <v>-0.0136228424908425</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1491,16 +1479,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.332</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-0.7553999523809524</v>
+        <v>-0.1121298571428573</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-0.08882889135460016</v>
+        <v>-0.1034410183150184</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.6665710610263522</v>
+        <v>-0.008688838827838843</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1508,16 +1496,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.336</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-0.7150680476190476</v>
+        <v>-0.1027268571428572</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-0.08924462921867783</v>
+        <v>-0.1036360695970697</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.6258234184003698</v>
+        <v>0.0009092124542124519</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1525,16 +1513,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.34</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-0.6674000000000001</v>
+        <v>-0.1022647142857144</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-0.08966036708275549</v>
+        <v>-0.103831120879121</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-0.5777396329172446</v>
+        <v>0.00156640659340658</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1542,16 +1530,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.344</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-0.6067987619047621</v>
+        <v>-0.1043339523809525</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-0.09007610494683316</v>
+        <v>-0.1040261721611723</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-0.516722656957929</v>
+        <v>-0.0003077802197802154</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1559,16 +1547,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.348</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-0.5475984761904762</v>
+        <v>-0.1035374285714286</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-0.09049184281091083</v>
+        <v>-0.1042212234432235</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-0.4571066333795654</v>
+        <v>0.0006837948717949016</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1576,16 +1564,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.352</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-0.4853967619047619</v>
+        <v>-0.114540380952381</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-0.0909075806749885</v>
+        <v>-0.1044162747252748</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-0.3944891812297734</v>
+        <v>-0.01012410622710619</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1593,16 +1581,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.356</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-0.4329298571428571</v>
+        <v>-0.113075380952381</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-0.09132331853906617</v>
+        <v>-0.1046113260073261</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-0.341606538603791</v>
+        <v>-0.008464054945054908</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1610,16 +1598,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.36</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-0.3833263333333333</v>
+        <v>-0.1090719047619048</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-0.09173905640314384</v>
+        <v>-0.1048063772893774</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-0.2915872769301895</v>
+        <v>-0.004265527472527425</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1627,16 +1615,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.364</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-0.3345901904761905</v>
+        <v>-0.1134692857142858</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-0.09215479426722151</v>
+        <v>-0.1050014285714287</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>-0.242435396208969</v>
+        <v>-0.00846785714285711</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1644,16 +1632,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.368</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-0.291393380952381</v>
+        <v>-0.1069989047619048</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-0.09257053213129918</v>
+        <v>-0.1051964798534799</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-0.1988228488210818</v>
+        <v>-0.00180242490842486</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1661,16 +1649,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.372</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-0.2507305714285715</v>
+        <v>-0.1060659523809524</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-0.09298626999537685</v>
+        <v>-0.1053915311355312</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-0.1577443014331946</v>
+        <v>-0.000674421245421164</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1678,16 +1666,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.376</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-0.2201345238095239</v>
+        <v>-0.1110605714285715</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-0.09340200785945452</v>
+        <v>-0.1055865824175825</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-0.1267325159500693</v>
+        <v>-0.005473989010988972</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1695,16 +1683,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.38</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-0.1975348571428572</v>
+        <v>-0.1145947142857143</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-0.09381774572353219</v>
+        <v>-0.1057816336996338</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>-0.103717111419325</v>
+        <v>-0.008813080586080532</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1712,16 +1700,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.384</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-0.1831366190476191</v>
+        <v>-0.1209309047619048</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-0.09423348358760986</v>
+        <v>-0.1059766849816851</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>-0.08890313546000922</v>
+        <v>-0.01495421978021971</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1729,16 +1717,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.388</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-0.1707364761904762</v>
+        <v>-0.1270038571428572</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-0.09464922145168753</v>
+        <v>-0.1061717362637364</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>-0.07608725473878869</v>
+        <v>-0.02083212087912087</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1746,16 +1734,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.392</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-0.159003380952381</v>
+        <v>-0.1273368095238096</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-0.0950649593157652</v>
+        <v>-0.1063667875457876</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-0.06393842163661578</v>
+        <v>-0.02097002197802196</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1763,16 +1751,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.396</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-0.1470723333333334</v>
+        <v>-0.1312721428571429</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-0.09548069717984287</v>
+        <v>-0.1065618388278389</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>-0.05159163615349055</v>
+        <v>-0.02471030402930402</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1780,16 +1768,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.4</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-0.1286033333333333</v>
+        <v>-0.1242006666666668</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-0.09589643504392054</v>
+        <v>-0.1067568901098902</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>-0.03270689828941281</v>
+        <v>-0.01744377655677658</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1797,16 +1785,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.404</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-0.1153968095238096</v>
+        <v>-0.1217998571428573</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-0.09631217290799821</v>
+        <v>-0.1069519413919415</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>-0.01908463661581136</v>
+        <v>-0.01484791575091576</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1814,16 +1802,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.408</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-0.1061317142857143</v>
+        <v>-0.1168682857142858</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-0.09672791077207588</v>
+        <v>-0.1071469926739928</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>-0.009403803513638453</v>
+        <v>-0.009721293040293053</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1831,16 +1819,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.412</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-0.1073355714285715</v>
+        <v>-0.1111396666666668</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-0.09714364863615355</v>
+        <v>-0.107342043956044</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>-0.01019192279241796</v>
+        <v>-0.003797622710622728</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1848,16 +1836,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.416</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-0.1124708571428572</v>
+        <v>-0.1075370952380953</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-0.09755938650023122</v>
+        <v>-0.1075370952380953</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>-0.01491147064262598</v>
+        <v>1.387778780781446e-17</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1865,16 +1853,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.42</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-0.11607</v>
+        <v>-0.1138732857142858</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-0.09797512436430889</v>
+        <v>-0.1138732857142858</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>-0.01809487563569116</v>
+        <v>0</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1882,16 +1870,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.424</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-0.1168688095238096</v>
+        <v>-0.1208727142857143</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-0.09839086222838656</v>
+        <v>-0.1208727142857143</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>-0.01847794729542301</v>
+        <v>0</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1899,16 +1887,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.428</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-0.1121298571428572</v>
+        <v>-0.1289365238095238</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-0.09880660009246423</v>
+        <v>-0.1289365238095238</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>-0.01332325705039296</v>
+        <v>0</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1916,16 +1904,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.432</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-0.1027268571428572</v>
+        <v>-0.126399</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-0.0992223379565419</v>
+        <v>-0.126399</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>-0.003504519186315294</v>
+        <v>0</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1933,16 +1921,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.436</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-0.1022647142857143</v>
+        <v>-0.1356631904761905</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-0.09963807582061956</v>
+        <v>-0.1356631904761905</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>-0.002626638465094769</v>
+        <v>0</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1950,16 +1938,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.44</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-0.1043339523809524</v>
+        <v>-0.1267978571428572</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-0.1000538136846972</v>
+        <v>-0.1267978571428572</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>-0.004280138696255181</v>
+        <v>0</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1967,16 +1955,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.444</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-0.1035374285714286</v>
+        <v>-0.1287359523809525</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-0.1004695515487749</v>
+        <v>-0.1287359523809525</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>-0.003067877022653681</v>
+        <v>0</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1984,16 +1972,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.448</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-0.1145403809523809</v>
+        <v>-0.1341414761904763</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-0.1008852894128526</v>
+        <v>-0.1341414761904763</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>-0.01365509153952837</v>
+        <v>0</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -2001,16 +1989,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.452</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-0.113075380952381</v>
+        <v>-0.1320066190476192</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-0.1013010272769302</v>
+        <v>-0.1320066190476192</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>-0.01177435367545071</v>
+        <v>0</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -2018,16 +2006,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.456</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-0.1090719047619047</v>
+        <v>-0.1322694761904763</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-0.1017167651410079</v>
+        <v>-0.1322694761904763</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>-0.007355139620896831</v>
+        <v>0</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2035,16 +2023,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.46</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-0.1134692857142857</v>
+        <v>-0.1386025238095239</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-0.1021325030050856</v>
+        <v>-0.1386025238095239</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>-0.01133678270920013</v>
+        <v>0</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2052,16 +2040,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.464</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-0.1069989047619047</v>
+        <v>-0.1335329523809525</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-0.1025482408691633</v>
+        <v>-0.1335329523809525</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>-0.004450663892741485</v>
+        <v>0</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2069,16 +2057,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.468</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-0.1060659523809523</v>
+        <v>-0.1382611428571429</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-0.1029639787332409</v>
+        <v>-0.1382611428571429</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>-0.00310197364771142</v>
+        <v>0</v>
       </c>
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="2" t="n"/>
@@ -2086,16 +2074,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.472</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-0.1110605714285714</v>
+        <v>-0.1473279047619049</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-0.1033797165973186</v>
+        <v>-0.1473279047619049</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>-0.007680854831252845</v>
+        <v>0</v>
       </c>
       <c r="E95" s="2" t="n"/>
       <c r="F95" s="2" t="n"/>
@@ -2103,16 +2091,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.476</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-0.1145947142857143</v>
+        <v>-0.152593761904762</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-0.1037954544613962</v>
+        <v>-0.152593761904762</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>-0.01079925982431802</v>
+        <v>0</v>
       </c>
       <c r="E96" s="2" t="n"/>
       <c r="F96" s="2" t="n"/>
@@ -2120,16 +2108,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.48</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-0.1209309047619047</v>
+        <v>-0.1601966190476192</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-0.1042111923254739</v>
+        <v>-0.1601966190476192</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>-0.01671971243643082</v>
+        <v>0</v>
       </c>
       <c r="E97" s="2" t="n"/>
       <c r="F97" s="2" t="n"/>
@@ -2137,16 +2125,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.484</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-0.1270038571428572</v>
+        <v>-0.1600658571428573</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-0.1046269301895516</v>
+        <v>-0.1600658571428573</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>-0.02237692695330558</v>
+        <v>0</v>
       </c>
       <c r="E98" s="2" t="n"/>
       <c r="F98" s="2" t="n"/>
@@ -2154,16 +2142,16 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.488</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-0.1273368095238095</v>
+        <v>-0.1562014761904763</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-0.1050426680536293</v>
+        <v>-0.1562014761904763</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>-0.02229414147018026</v>
+        <v>0</v>
       </c>
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="2" t="n"/>
@@ -2171,16 +2159,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.492</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-0.1312721428571429</v>
+        <v>-0.1535689761904763</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-0.1054584059177069</v>
+        <v>-0.1535689761904763</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>-0.02581373693943594</v>
+        <v>0</v>
       </c>
       <c r="E100" s="2" t="n"/>
       <c r="F100" s="2" t="n"/>
@@ -2188,16 +2176,16 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.496</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-0.1242006666666667</v>
+        <v>-0.158970404761905</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-0.1058741437817846</v>
+        <v>-0.158970404761905</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>-0.01832652288488211</v>
+        <v>0</v>
       </c>
       <c r="E101" s="2" t="n"/>
       <c r="F101" s="2" t="n"/>
@@ -2205,428 +2193,20 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>-0.404</v>
+        <v>-0.5</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-0.1217998571428572</v>
+        <v>-0.1782399285714289</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-0.1062898816458623</v>
+        <v>-0.1782399285714289</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>-0.01550997549699491</v>
+        <v>0</v>
       </c>
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>-0.408</v>
-      </c>
-      <c r="B103" s="2" t="n">
-        <v>-0.1168682857142858</v>
-      </c>
-      <c r="C103" s="2" t="n">
-        <v>-0.1067056195099399</v>
-      </c>
-      <c r="D103" s="2" t="n">
-        <v>-0.01016266620434582</v>
-      </c>
-      <c r="E103" s="2" t="n"/>
-      <c r="F103" s="2" t="n"/>
-      <c r="G103" s="2" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>-0.412</v>
-      </c>
-      <c r="B104" s="2" t="n">
-        <v>-0.1111396666666667</v>
-      </c>
-      <c r="C104" s="2" t="n">
-        <v>-0.1071213573740176</v>
-      </c>
-      <c r="D104" s="2" t="n">
-        <v>-0.004018309292649111</v>
-      </c>
-      <c r="E104" s="2" t="n"/>
-      <c r="F104" s="2" t="n"/>
-      <c r="G104" s="2" t="n"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>-0.416</v>
-      </c>
-      <c r="B105" s="2" t="n">
-        <v>-0.1075370952380953</v>
-      </c>
-      <c r="C105" s="2" t="n">
-        <v>-0.1075370952380953</v>
-      </c>
-      <c r="D105" s="2" t="n">
-        <v>1.387778780781446e-17</v>
-      </c>
-      <c r="E105" s="2" t="n"/>
-      <c r="F105" s="2" t="n"/>
-      <c r="G105" s="2" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>-0.42</v>
-      </c>
-      <c r="B106" s="2" t="n">
-        <v>-0.1138732857142857</v>
-      </c>
-      <c r="C106" s="2" t="n">
-        <v>-0.1138732857142857</v>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" s="2" t="n"/>
-      <c r="F106" s="2" t="n"/>
-      <c r="G106" s="2" t="n"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>-0.424</v>
-      </c>
-      <c r="B107" s="2" t="n">
-        <v>-0.1208727142857143</v>
-      </c>
-      <c r="C107" s="2" t="n">
-        <v>-0.1208727142857143</v>
-      </c>
-      <c r="D107" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" s="2" t="n"/>
-      <c r="F107" s="2" t="n"/>
-      <c r="G107" s="2" t="n"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>-0.428</v>
-      </c>
-      <c r="B108" s="2" t="n">
-        <v>-0.1289365238095238</v>
-      </c>
-      <c r="C108" s="2" t="n">
-        <v>-0.1289365238095238</v>
-      </c>
-      <c r="D108" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" s="2" t="n"/>
-      <c r="F108" s="2" t="n"/>
-      <c r="G108" s="2" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
-        <v>-0.432</v>
-      </c>
-      <c r="B109" s="2" t="n">
-        <v>-0.126399</v>
-      </c>
-      <c r="C109" s="2" t="n">
-        <v>-0.126399</v>
-      </c>
-      <c r="D109" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" s="2" t="n"/>
-      <c r="F109" s="2" t="n"/>
-      <c r="G109" s="2" t="n"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>-0.436</v>
-      </c>
-      <c r="B110" s="2" t="n">
-        <v>-0.1356631904761905</v>
-      </c>
-      <c r="C110" s="2" t="n">
-        <v>-0.1356631904761905</v>
-      </c>
-      <c r="D110" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" s="2" t="n"/>
-      <c r="F110" s="2" t="n"/>
-      <c r="G110" s="2" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
-        <v>-0.44</v>
-      </c>
-      <c r="B111" s="2" t="n">
-        <v>-0.1267978571428572</v>
-      </c>
-      <c r="C111" s="2" t="n">
-        <v>-0.1267978571428572</v>
-      </c>
-      <c r="D111" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" s="2" t="n"/>
-      <c r="F111" s="2" t="n"/>
-      <c r="G111" s="2" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>-0.444</v>
-      </c>
-      <c r="B112" s="2" t="n">
-        <v>-0.1287359523809524</v>
-      </c>
-      <c r="C112" s="2" t="n">
-        <v>-0.1287359523809524</v>
-      </c>
-      <c r="D112" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" s="2" t="n"/>
-      <c r="F112" s="2" t="n"/>
-      <c r="G112" s="2" t="n"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
-        <v>-0.448</v>
-      </c>
-      <c r="B113" s="2" t="n">
-        <v>-0.1341414761904762</v>
-      </c>
-      <c r="C113" s="2" t="n">
-        <v>-0.1341414761904762</v>
-      </c>
-      <c r="D113" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E113" s="2" t="n"/>
-      <c r="F113" s="2" t="n"/>
-      <c r="G113" s="2" t="n"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
-        <v>-0.452</v>
-      </c>
-      <c r="B114" s="2" t="n">
-        <v>-0.1320066190476191</v>
-      </c>
-      <c r="C114" s="2" t="n">
-        <v>-0.1320066190476191</v>
-      </c>
-      <c r="D114" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" s="2" t="n"/>
-      <c r="F114" s="2" t="n"/>
-      <c r="G114" s="2" t="n"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
-        <v>-0.456</v>
-      </c>
-      <c r="B115" s="2" t="n">
-        <v>-0.1322694761904762</v>
-      </c>
-      <c r="C115" s="2" t="n">
-        <v>-0.1322694761904762</v>
-      </c>
-      <c r="D115" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" s="2" t="n"/>
-      <c r="F115" s="2" t="n"/>
-      <c r="G115" s="2" t="n"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="B116" s="2" t="n">
-        <v>-0.1386025238095239</v>
-      </c>
-      <c r="C116" s="2" t="n">
-        <v>-0.1386025238095239</v>
-      </c>
-      <c r="D116" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" s="2" t="n"/>
-      <c r="F116" s="2" t="n"/>
-      <c r="G116" s="2" t="n"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
-        <v>-0.464</v>
-      </c>
-      <c r="B117" s="2" t="n">
-        <v>-0.1335329523809524</v>
-      </c>
-      <c r="C117" s="2" t="n">
-        <v>-0.1335329523809524</v>
-      </c>
-      <c r="D117" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" s="2" t="n"/>
-      <c r="F117" s="2" t="n"/>
-      <c r="G117" s="2" t="n"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
-        <v>-0.468</v>
-      </c>
-      <c r="B118" s="2" t="n">
-        <v>-0.1382611428571429</v>
-      </c>
-      <c r="C118" s="2" t="n">
-        <v>-0.1382611428571429</v>
-      </c>
-      <c r="D118" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" s="2" t="n"/>
-      <c r="F118" s="2" t="n"/>
-      <c r="G118" s="2" t="n"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
-        <v>-0.472</v>
-      </c>
-      <c r="B119" s="2" t="n">
-        <v>-0.1473279047619048</v>
-      </c>
-      <c r="C119" s="2" t="n">
-        <v>-0.1473279047619048</v>
-      </c>
-      <c r="D119" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" s="2" t="n"/>
-      <c r="F119" s="2" t="n"/>
-      <c r="G119" s="2" t="n"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
-        <v>-0.476</v>
-      </c>
-      <c r="B120" s="2" t="n">
-        <v>-0.152593761904762</v>
-      </c>
-      <c r="C120" s="2" t="n">
-        <v>-0.152593761904762</v>
-      </c>
-      <c r="D120" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" s="2" t="n"/>
-      <c r="F120" s="2" t="n"/>
-      <c r="G120" s="2" t="n"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="B121" s="2" t="n">
-        <v>-0.1601966190476191</v>
-      </c>
-      <c r="C121" s="2" t="n">
-        <v>-0.1601966190476191</v>
-      </c>
-      <c r="D121" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" s="2" t="n"/>
-      <c r="F121" s="2" t="n"/>
-      <c r="G121" s="2" t="n"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
-        <v>-0.484</v>
-      </c>
-      <c r="B122" s="2" t="n">
-        <v>-0.1600658571428571</v>
-      </c>
-      <c r="C122" s="2" t="n">
-        <v>-0.1600658571428571</v>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" s="2" t="n"/>
-      <c r="F122" s="2" t="n"/>
-      <c r="G122" s="2" t="n"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
-        <v>-0.488</v>
-      </c>
-      <c r="B123" s="2" t="n">
-        <v>-0.1562014761904762</v>
-      </c>
-      <c r="C123" s="2" t="n">
-        <v>-0.1562014761904762</v>
-      </c>
-      <c r="D123" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2" t="n"/>
-      <c r="F123" s="2" t="n"/>
-      <c r="G123" s="2" t="n"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
-        <v>-0.492</v>
-      </c>
-      <c r="B124" s="2" t="n">
-        <v>-0.1535689761904764</v>
-      </c>
-      <c r="C124" s="2" t="n">
-        <v>-0.1535689761904764</v>
-      </c>
-      <c r="D124" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" s="2" t="n"/>
-      <c r="F124" s="2" t="n"/>
-      <c r="G124" s="2" t="n"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
-        <v>-0.496</v>
-      </c>
-      <c r="B125" s="2" t="n">
-        <v>-0.158970404761905</v>
-      </c>
-      <c r="C125" s="2" t="n">
-        <v>-0.158970404761905</v>
-      </c>
-      <c r="D125" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" s="2" t="n"/>
-      <c r="F125" s="2" t="n"/>
-      <c r="G125" s="2" t="n"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="B126" s="2" t="n">
-        <v>-0.1782399285714291</v>
-      </c>
-      <c r="C126" s="2" t="n">
-        <v>-0.1782399285714291</v>
-      </c>
-      <c r="D126" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" s="2" t="n"/>
-      <c r="F126" s="2" t="n"/>
-      <c r="G126" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2639,7 +2219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2647,7 +2227,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="19" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
@@ -2665,58 +2245,34 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.132</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.05968395284327317</v>
+        <v>-0.03257754578754576</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.052</v>
+        <v>-0.228</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.03843238372630599</v>
+        <v>-0.6880896959706964</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.092</v>
+        <v>-0.328</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.03166624318076736</v>
+        <v>-0.0136228424908425</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.396</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.04824629311141926</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>-0.228</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>-0.6984619653259362</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>-0.328</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>-0.01847794729542301</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>-0.396</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>-0.02581373693943594</v>
+        <v>-0.02471030402930402</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Jihong/DPV Analysis/Analysis Files/aptamer_sensor_1.xlsx
+++ b/Data/Jihong/DPV Analysis/Analysis Files/aptamer_sensor_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,12 +433,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="21" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="24" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="24" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="35" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="13" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="19" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
     <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -477,185 +477,205 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.004</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.1003582857142859</v>
+        <v>-0.06471609523809548</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-0.1003582857142859</v>
+        <v>-0.06471609523809548</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.012</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.03257754578754576</v>
+        <v>-0.05968395284327306</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.008</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.0923230952380953</v>
+        <v>-0.1092359523809525</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-0.09232309523809534</v>
+        <v>-0.06513183310217315</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>4.163336342344337e-17</v>
+        <v>-0.04410411927877934</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.052</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-0.6880896959706964</v>
+        <v>-0.03843238372630592</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.012</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.09462609523809531</v>
+        <v>-0.1252315238095239</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.09251814652014663</v>
+        <v>-0.06554757096625081</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.002107948717948685</v>
+        <v>-0.05968395284327306</v>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.092</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>-0.0136228424908425</v>
+        <v>-0.0316662431807673</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.016</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.1025979523809525</v>
+        <v>-0.1227324761904763</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.0927131978021979</v>
+        <v>-0.06596330883032848</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.009884754578754568</v>
+        <v>-0.05676916736014782</v>
       </c>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.132</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>-0.02471030402930402</v>
+        <v>-0.04824629311141922</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.02</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-0.1102676190476191</v>
+        <v>-0.1139321904761906</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.09290824908424919</v>
+        <v>-0.06637904669440614</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.01735936996336994</v>
-      </c>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
+        <v>-0.04755314378178445</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="n">
+        <v>-0.228</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>-0.6984619653259365</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.024</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-0.1149361904761905</v>
+        <v>-0.108401142857143</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.09310330036630048</v>
+        <v>-0.06679478455848381</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.02183289010989005</v>
-      </c>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
+        <v>-0.04160635829865916</v>
+      </c>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="n">
+        <v>-0.328</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>-0.01847794729542301</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.028</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-0.1169388095238096</v>
+        <v>-0.1033344761904763</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.09329835164835175</v>
+        <v>-0.06721052242256148</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.02364045787545783</v>
-      </c>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
-      <c r="G8" s="2" t="n"/>
+        <v>-0.0361239537679148</v>
+      </c>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="n">
+        <v>-0.396</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>-0.02581373693943598</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.032</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-0.1230025714285715</v>
+        <v>-0.1022655238095239</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.09349340293040304</v>
+        <v>-0.06762626028663915</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.02950916849816845</v>
-      </c>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
-      <c r="G9" s="2" t="n"/>
+        <v>-0.03463926352288471</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="n">
+        <v>-0.436</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>-0.01601244235588975</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.036</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-0.1262660000000001</v>
+        <v>-0.09646428571428575</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.09368845421245431</v>
+        <v>-0.06804199815071682</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.03257754578754576</v>
-      </c>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
-      <c r="G10" s="2" t="n"/>
+        <v>-0.02842228756356893</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>-0.01389583458646609</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-0.1249312380952382</v>
+        <v>-0.09493480952380959</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-0.0938835054945056</v>
+        <v>-0.06845773601479449</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.03104773260073258</v>
+        <v>-0.0264770735090151</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -663,16 +683,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.044</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-0.1299282380952382</v>
+        <v>-0.09413528571428577</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-0.09407855677655688</v>
+        <v>-0.06887347387887216</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.0358496813186813</v>
+        <v>-0.02526181183541361</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -680,16 +700,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.048</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-0.138794380952381</v>
+        <v>-0.1019359047619048</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.09427360805860815</v>
+        <v>-0.06928921174294983</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.04452077289377288</v>
+        <v>-0.03264669301895499</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -697,16 +717,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.052</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-0.1509994761904763</v>
+        <v>-0.1081373333333334</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-0.09446865934065944</v>
+        <v>-0.0697049496070275</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.05653081684981683</v>
+        <v>-0.03843238372630592</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -714,16 +734,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.05600000000000001</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-0.1648690476190477</v>
+        <v>-0.1079396666666667</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-0.09466371062271073</v>
+        <v>-0.07012068747110516</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.07020533699633696</v>
+        <v>-0.03781897919556156</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -731,16 +751,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.06</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-0.1777371904761905</v>
+        <v>-0.1057364285714286</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-0.094858761904762</v>
+        <v>-0.07053642533518283</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.08287842857142852</v>
+        <v>-0.03520000323624577</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -748,16 +768,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.064</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-0.1898694761904763</v>
+        <v>-0.1042702857142857</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-0.09505381318681329</v>
+        <v>-0.0709521631992605</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.09481566300366297</v>
+        <v>-0.03331812251502524</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -765,16 +785,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.068</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-0.2091355714285716</v>
+        <v>-0.09933228571428575</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-0.09524886446886457</v>
+        <v>-0.07136790106333817</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.113886706959707</v>
+        <v>-0.02796438465094758</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -782,16 +802,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.07200000000000001</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-0.2264651904761906</v>
+        <v>-0.0993310952380953</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-0.09544391575091585</v>
+        <v>-0.07178363892741584</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.1310212747252748</v>
+        <v>-0.02754745631067947</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -799,16 +819,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.07600000000000001</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-0.2558013333333334</v>
+        <v>-0.09899480952380961</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-0.09563896703296713</v>
+        <v>-0.07219937679149351</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.1601623663003663</v>
+        <v>-0.0267954327323161</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -816,16 +836,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.08</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-0.2912649047619049</v>
+        <v>-0.09972961904761912</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-0.09583401831501842</v>
+        <v>-0.07261511465557118</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.1954308864468865</v>
+        <v>-0.02711450439204795</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -833,16 +853,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-0.3283282380952383</v>
+        <v>-0.101396380952381</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-0.09602906959706969</v>
+        <v>-0.07303085251964883</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.2322991684981686</v>
+        <v>-0.02836552843273218</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -850,16 +870,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.08800000000000001</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-0.3706545238095241</v>
+        <v>-0.1029302857142858</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-0.09622412087912098</v>
+        <v>-0.0734465903837265</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.2744304029304032</v>
+        <v>-0.02948369533055925</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -867,16 +887,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.092</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-0.4151173333333337</v>
+        <v>-0.1055285714285715</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-0.09641917216117227</v>
+        <v>-0.07386232824780417</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.3186981611721614</v>
+        <v>-0.0316662431807673</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -884,16 +904,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.096</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-0.4572548571428574</v>
+        <v>-0.1027266666666667</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-0.09661422344322354</v>
+        <v>-0.07427806611188184</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.3606406336996338</v>
+        <v>-0.02844860055478488</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -901,16 +921,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.1</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-0.5047938571428574</v>
+        <v>-0.09572428571428579</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-0.09680927472527483</v>
+        <v>-0.07469380397595951</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.4079845824175826</v>
+        <v>-0.02103048173832628</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -918,16 +938,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.104</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-0.5566633809523812</v>
+        <v>-0.09652404761904768</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-0.09700432600732611</v>
+        <v>-0.07510954184003718</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.4596590549450551</v>
+        <v>-0.0214145057790105</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -935,16 +955,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.108</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-0.598001285714286</v>
+        <v>-0.09759361904761912</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-0.09719937728937739</v>
+        <v>-0.07552527970411485</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.5008019084249087</v>
+        <v>-0.02206833934350427</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -952,16 +972,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.112</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-0.6477351428571433</v>
+        <v>-0.1025979523809525</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-0.09739442857142867</v>
+        <v>-0.07594101756819252</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.5503407142857146</v>
+        <v>-0.02665693481275995</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -969,16 +989,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.116</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-0.69193680952381</v>
+        <v>-0.1102676190476191</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-0.09758947985347996</v>
+        <v>-0.07635675543227019</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.59434732967033</v>
+        <v>-0.03391086361534894</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -986,16 +1006,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-0.7310049047619053</v>
+        <v>-0.1149361904761905</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-0.09778453113553123</v>
+        <v>-0.07677249329634786</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.6332203736263741</v>
+        <v>-0.03816369717984268</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -1003,16 +1023,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.124</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-0.7614664285714292</v>
+        <v>-0.1169388095238096</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-0.09797958241758252</v>
+        <v>-0.07718823116042552</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.6634868461538467</v>
+        <v>-0.03975057836338407</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1020,16 +1040,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.128</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-0.7785931428571433</v>
+        <v>-0.1230025714285715</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-0.09817463369963379</v>
+        <v>-0.07760396902450319</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.6804185091575096</v>
+        <v>-0.0453986024040683</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1037,16 +1057,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.132</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-0.7864593809523814</v>
+        <v>-0.1262660000000001</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-0.09836968498168508</v>
+        <v>-0.07801970688858086</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.6880896959706964</v>
+        <v>-0.04824629311141922</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1054,16 +1074,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.136</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-0.7779920952380956</v>
+        <v>-0.1249312380952382</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-0.09856473626373637</v>
+        <v>-0.07843544475265853</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.6794273589743592</v>
+        <v>-0.04649579334257965</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1071,16 +1091,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.14</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-0.7553999523809527</v>
+        <v>-0.1299282380952382</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-0.09875978754578764</v>
+        <v>-0.0788511826167362</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.6566401648351651</v>
+        <v>-0.05107705547850198</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1088,16 +1108,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.144</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-0.7150680476190481</v>
+        <v>-0.138794380952381</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-0.09895483882783893</v>
+        <v>-0.07926692048081387</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.6161132087912091</v>
+        <v>-0.05952746047156716</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1105,16 +1125,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.148</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-0.6674000000000004</v>
+        <v>-0.1509994761904763</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-0.09914989010989021</v>
+        <v>-0.07968265834489154</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.5682501098901103</v>
+        <v>-0.07131681784558473</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1122,16 +1142,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.152</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-0.6067987619047623</v>
+        <v>-0.1648690476190477</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-0.09934494139194149</v>
+        <v>-0.08009839620896919</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.5074538205128208</v>
+        <v>-0.0847706514100785</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1139,16 +1159,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.156</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-0.5475984761904765</v>
+        <v>-0.1777371904761905</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-0.09953999267399277</v>
+        <v>-0.08051413407304686</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.4480584835164838</v>
+        <v>-0.09722305640314366</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1156,16 +1176,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.16</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-0.4853967619047622</v>
+        <v>-0.1898694761904763</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-0.09973504395604406</v>
+        <v>-0.08092987193712453</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.3856617179487182</v>
+        <v>-0.1089396042533518</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1173,16 +1193,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.164</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-0.4329298571428574</v>
+        <v>-0.2091355714285716</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-0.09993009523809533</v>
+        <v>-0.0813456098012022</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.332999761904762</v>
+        <v>-0.1277899616273694</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1190,16 +1210,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.168</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-0.3833263333333335</v>
+        <v>-0.2264651904761907</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-0.1001251465201466</v>
+        <v>-0.08176134766527987</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.283201186813187</v>
+        <v>-0.1447038428109108</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1207,16 +1227,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.172</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-0.3345901904761907</v>
+        <v>-0.2558013333333334</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-0.1003201978021979</v>
+        <v>-0.08217708552935754</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-0.2342699926739927</v>
+        <v>-0.1736242478039759</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1224,16 +1244,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.176</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-0.2913933809523812</v>
+        <v>-0.2912649047619049</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-0.1005152490842492</v>
+        <v>-0.08259282339343521</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.190878131868132</v>
+        <v>-0.2086720813684697</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1241,16 +1261,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.18</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-0.2507305714285716</v>
+        <v>-0.3283282380952383</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-0.1007103003663005</v>
+        <v>-0.08300856125751288</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-0.1500202710622712</v>
+        <v>-0.2453196768377254</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1258,16 +1278,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.184</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-0.220134523809524</v>
+        <v>-0.3706545238095241</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-0.1009053516483518</v>
+        <v>-0.08342429912159055</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.1192291721611722</v>
+        <v>-0.2872302246879336</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1275,16 +1295,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.188</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-0.1975348571428573</v>
+        <v>-0.4151173333333337</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-0.101100402930403</v>
+        <v>-0.08384003698566821</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.09643445421245427</v>
+        <v>-0.3312772963476655</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1292,16 +1312,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.192</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-0.1831366190476192</v>
+        <v>-0.4572548571428574</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-0.1012954542124543</v>
+        <v>-0.08425577484974588</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.08184116483516488</v>
+        <v>-0.3729990822931115</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1309,16 +1329,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.196</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-0.1707364761904763</v>
+        <v>-0.5047938571428574</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-0.1014905054945056</v>
+        <v>-0.08467151271382355</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.06924597069597073</v>
+        <v>-0.4201223444290338</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1326,16 +1346,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.2</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-0.1590033809523811</v>
+        <v>-0.5566633809523812</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-0.1016855567765569</v>
+        <v>-0.08508725057790122</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.05731782417582419</v>
+        <v>-0.47157613037448</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1343,16 +1363,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.204</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-0.1470723333333335</v>
+        <v>-0.598001285714286</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-0.1018806080586082</v>
+        <v>-0.08550298844197889</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.04519172527472531</v>
+        <v>-0.5124982972723071</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1360,16 +1380,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.208</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-0.1286033333333334</v>
+        <v>-0.6477351428571433</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-0.1020756593406594</v>
+        <v>-0.08591872630605656</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.026527673992674</v>
+        <v>-0.5618164165510867</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1377,16 +1397,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.212</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-0.1153968095238097</v>
+        <v>-0.69193680952381</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-0.1022707106227107</v>
+        <v>-0.08633446417013423</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.01312609890109893</v>
+        <v>-0.6056023453536757</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1394,16 +1414,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.216</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-0.1061317142857144</v>
+        <v>-0.7310049047619052</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-0.102465761904762</v>
+        <v>-0.08675020203421188</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.003665952380952395</v>
+        <v>-0.6442547027276933</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1411,16 +1431,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.22</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-0.1073355714285716</v>
+        <v>-0.7614664285714292</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-0.1026608131868133</v>
+        <v>-0.08716593989828955</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.004674758241758281</v>
+        <v>-0.6743004886731396</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1428,16 +1448,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.224</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-0.1124708571428573</v>
+        <v>-0.7785931428571433</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-0.1028558644688646</v>
+        <v>-0.08758167776236722</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.009614992673992698</v>
+        <v>-0.6910114650947761</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1445,16 +1465,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.228</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-0.1160700000000001</v>
+        <v>-0.7864593809523814</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-0.1030509157509159</v>
+        <v>-0.08799741562644489</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.01301908424908427</v>
+        <v>-0.6984619653259365</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1462,16 +1482,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.232</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-0.1168688095238096</v>
+        <v>-0.7779920952380956</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-0.1032459670329671</v>
+        <v>-0.08841315349052256</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.0136228424908425</v>
+        <v>-0.6895789417475731</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1479,16 +1499,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.236</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-0.1121298571428573</v>
+        <v>-0.7553999523809527</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-0.1034410183150184</v>
+        <v>-0.08882889135460023</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.008688838827838843</v>
+        <v>-0.6665710610263524</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1496,16 +1516,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.24</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-0.1027268571428572</v>
+        <v>-0.7150680476190481</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-0.1036360695970697</v>
+        <v>-0.0892446292186779</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>0.0009092124542124519</v>
+        <v>-0.6258234184003701</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1513,16 +1533,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.244</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-0.1022647142857144</v>
+        <v>-0.6674000000000004</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-0.103831120879121</v>
+        <v>-0.08966036708275557</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>0.00156640659340658</v>
+        <v>-0.5777396329172448</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1530,16 +1550,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.248</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-0.1043339523809525</v>
+        <v>-0.6067987619047623</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-0.1040261721611723</v>
+        <v>-0.09007610494683324</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-0.0003077802197802154</v>
+        <v>-0.5167226569579291</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1547,16 +1567,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.252</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-0.1035374285714286</v>
+        <v>-0.5475984761904766</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-0.1042212234432235</v>
+        <v>-0.09049184281091091</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>0.0006837948717949016</v>
+        <v>-0.4571066333795657</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1564,16 +1584,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.256</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-0.114540380952381</v>
+        <v>-0.4853967619047622</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-0.1044162747252748</v>
+        <v>-0.09090758067498857</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-0.01012410622710619</v>
+        <v>-0.3944891812297737</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1581,16 +1601,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.26</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-0.113075380952381</v>
+        <v>-0.4329298571428574</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-0.1046113260073261</v>
+        <v>-0.09132331853906624</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-0.008464054945054908</v>
+        <v>-0.3416065386037911</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1598,16 +1618,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.264</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-0.1090719047619048</v>
+        <v>-0.3833263333333335</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-0.1048063772893774</v>
+        <v>-0.09173905640314391</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-0.004265527472527425</v>
+        <v>-0.2915872769301897</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1615,16 +1635,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.268</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-0.1134692857142858</v>
+        <v>-0.3345901904761907</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-0.1050014285714287</v>
+        <v>-0.09215479426722158</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>-0.00846785714285711</v>
+        <v>-0.2424353962089691</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1632,16 +1652,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.272</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-0.1069989047619048</v>
+        <v>-0.2913933809523812</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-0.1051964798534799</v>
+        <v>-0.09257053213129925</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-0.00180242490842486</v>
+        <v>-0.1988228488210819</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1649,16 +1669,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.276</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-0.1060659523809524</v>
+        <v>-0.2507305714285716</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-0.1053915311355312</v>
+        <v>-0.09298626999537692</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-0.000674421245421164</v>
+        <v>-0.1577443014331947</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1666,16 +1686,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.28</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-0.1110605714285715</v>
+        <v>-0.220134523809524</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-0.1055865824175825</v>
+        <v>-0.09340200785945459</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-0.005473989010988972</v>
+        <v>-0.1267325159500694</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1683,16 +1703,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.284</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-0.1145947142857143</v>
+        <v>-0.1975348571428573</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-0.1057816336996338</v>
+        <v>-0.09381774572353226</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>-0.008813080586080532</v>
+        <v>-0.103717111419325</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1700,16 +1720,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.288</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-0.1209309047619048</v>
+        <v>-0.1831366190476192</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-0.1059766849816851</v>
+        <v>-0.09423348358760991</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>-0.01495421978021971</v>
+        <v>-0.08890313546000927</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1717,16 +1737,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.292</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-0.1270038571428572</v>
+        <v>-0.1707364761904763</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-0.1061717362637364</v>
+        <v>-0.09464922145168758</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>-0.02083212087912087</v>
+        <v>-0.07608725473878875</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1734,16 +1754,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.296</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-0.1273368095238096</v>
+        <v>-0.1590033809523811</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-0.1063667875457876</v>
+        <v>-0.09506495931576525</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-0.02097002197802196</v>
+        <v>-0.06393842163661584</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1751,16 +1771,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.3</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-0.1312721428571429</v>
+        <v>-0.1470723333333335</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-0.1065618388278389</v>
+        <v>-0.09548069717984292</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>-0.02471030402930402</v>
+        <v>-0.05159163615349055</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1768,16 +1788,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.304</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-0.1242006666666668</v>
+        <v>-0.1286033333333334</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-0.1067568901098902</v>
+        <v>-0.09589643504392059</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>-0.01744377655677658</v>
+        <v>-0.03270689828941284</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1785,16 +1805,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>-0.404</v>
+        <v>-0.308</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-0.1217998571428573</v>
+        <v>-0.1153968095238097</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-0.1069519413919415</v>
+        <v>-0.09631217290799826</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>-0.01484791575091576</v>
+        <v>-0.01908463661581139</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1802,16 +1822,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>-0.408</v>
+        <v>-0.312</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-0.1168682857142858</v>
+        <v>-0.1061317142857144</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-0.1071469926739928</v>
+        <v>-0.09672791077207593</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>-0.009721293040293053</v>
+        <v>-0.009403803513638481</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1819,16 +1839,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>-0.412</v>
+        <v>-0.316</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-0.1111396666666668</v>
+        <v>-0.1073355714285716</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-0.107342043956044</v>
+        <v>-0.0971436486361536</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>-0.003797622710622728</v>
+        <v>-0.01019192279241796</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1836,16 +1856,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>-0.416</v>
+        <v>-0.32</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-0.1075370952380953</v>
+        <v>-0.1124708571428573</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-0.1075370952380953</v>
+        <v>-0.09755938650023127</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>1.387778780781446e-17</v>
+        <v>-0.01491147064262599</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1853,16 +1873,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>-0.42</v>
+        <v>-0.324</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-0.1138732857142858</v>
+        <v>-0.1160700000000001</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-0.1138732857142858</v>
+        <v>-0.09797512436430894</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>0</v>
+        <v>-0.01809487563569118</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1870,16 +1890,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>-0.424</v>
+        <v>-0.328</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-0.1208727142857143</v>
+        <v>-0.1168688095238096</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-0.1208727142857143</v>
+        <v>-0.09839086222838661</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>0</v>
+        <v>-0.01847794729542301</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1887,16 +1907,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>-0.428</v>
+        <v>-0.332</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-0.1289365238095238</v>
+        <v>-0.1121298571428573</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-0.1289365238095238</v>
+        <v>-0.09880660009246427</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>0</v>
+        <v>-0.01332325705039299</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1904,16 +1924,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>-0.432</v>
+        <v>-0.336</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-0.126399</v>
+        <v>-0.1027268571428572</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-0.126399</v>
+        <v>-0.09922233795654194</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>0</v>
+        <v>-0.003504519186315308</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1921,16 +1941,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>-0.436</v>
+        <v>-0.34</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-0.1356631904761905</v>
+        <v>-0.1022647142857144</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-0.1356631904761905</v>
+        <v>-0.09963807582061961</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>0</v>
+        <v>-0.002626638465094797</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1938,16 +1958,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>-0.44</v>
+        <v>-0.344</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-0.1267978571428572</v>
+        <v>-0.1043339523809525</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-0.1267978571428572</v>
+        <v>-0.1000538136846973</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>0</v>
+        <v>-0.004280138696255195</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1955,16 +1975,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>-0.444</v>
+        <v>-0.348</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-0.1287359523809525</v>
+        <v>-0.1035374285714286</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-0.1287359523809525</v>
+        <v>-0.1004695515487749</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>0</v>
+        <v>-0.003067877022653695</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1972,16 +1992,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>-0.448</v>
+        <v>-0.352</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-0.1341414761904763</v>
+        <v>-0.114540380952381</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-0.1341414761904763</v>
+        <v>-0.1008852894128526</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>0</v>
+        <v>-0.0136550915395284</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1989,16 +2009,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>-0.452</v>
+        <v>-0.356</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-0.1320066190476192</v>
+        <v>-0.113075380952381</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-0.1320066190476192</v>
+        <v>-0.1013010272769303</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>0</v>
+        <v>-0.01177435367545075</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -2006,16 +2026,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>-0.456</v>
+        <v>-0.36</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-0.1322694761904763</v>
+        <v>-0.1090719047619048</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-0.1322694761904763</v>
+        <v>-0.1017167651410079</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>0</v>
+        <v>-0.007355139620896872</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2023,16 +2043,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>-0.46</v>
+        <v>-0.364</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-0.1386025238095239</v>
+        <v>-0.1134692857142858</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-0.1386025238095239</v>
+        <v>-0.1021325030050856</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>0</v>
+        <v>-0.01133678270920016</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2040,16 +2060,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>-0.464</v>
+        <v>-0.368</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-0.1335329523809525</v>
+        <v>-0.1069989047619048</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-0.1335329523809525</v>
+        <v>-0.1025482408691633</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>0</v>
+        <v>-0.004450663892741513</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2057,16 +2077,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>-0.468</v>
+        <v>-0.372</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-0.1382611428571429</v>
+        <v>-0.1060659523809524</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-0.1382611428571429</v>
+        <v>-0.102963978733241</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>0</v>
+        <v>-0.003101973647711448</v>
       </c>
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="2" t="n"/>
@@ -2074,16 +2094,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>-0.472</v>
+        <v>-0.376</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-0.1473279047619049</v>
+        <v>-0.1110605714285715</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-0.1473279047619049</v>
+        <v>-0.1033797165973186</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>0</v>
+        <v>-0.007680854831252859</v>
       </c>
       <c r="E95" s="2" t="n"/>
       <c r="F95" s="2" t="n"/>
@@ -2091,16 +2111,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>-0.476</v>
+        <v>-0.38</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-0.152593761904762</v>
+        <v>-0.1145947142857143</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-0.152593761904762</v>
+        <v>-0.1037954544613963</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>0</v>
+        <v>-0.01079925982431804</v>
       </c>
       <c r="E96" s="2" t="n"/>
       <c r="F96" s="2" t="n"/>
@@ -2108,16 +2128,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>-0.48</v>
+        <v>-0.384</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-0.1601966190476192</v>
+        <v>-0.1209309047619048</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-0.1601966190476192</v>
+        <v>-0.104211192325474</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>0</v>
+        <v>-0.01671971243643085</v>
       </c>
       <c r="E97" s="2" t="n"/>
       <c r="F97" s="2" t="n"/>
@@ -2125,16 +2145,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>-0.484</v>
+        <v>-0.388</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-0.1600658571428573</v>
+        <v>-0.1270038571428572</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-0.1600658571428573</v>
+        <v>-0.1046269301895516</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>0</v>
+        <v>-0.02237692695330559</v>
       </c>
       <c r="E98" s="2" t="n"/>
       <c r="F98" s="2" t="n"/>
@@ -2142,16 +2162,16 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>-0.488</v>
+        <v>-0.392</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-0.1562014761904763</v>
+        <v>-0.1273368095238096</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-0.1562014761904763</v>
+        <v>-0.1050426680536293</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>0</v>
+        <v>-0.0222941414701803</v>
       </c>
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="2" t="n"/>
@@ -2159,16 +2179,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>-0.492</v>
+        <v>-0.396</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-0.1535689761904763</v>
+        <v>-0.1312721428571429</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-0.1535689761904763</v>
+        <v>-0.105458405917707</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>0</v>
+        <v>-0.02581373693943598</v>
       </c>
       <c r="E100" s="2" t="n"/>
       <c r="F100" s="2" t="n"/>
@@ -2176,16 +2196,16 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>-0.496</v>
+        <v>-0.4</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-0.158970404761905</v>
+        <v>-0.1242006666666668</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-0.158970404761905</v>
+        <v>-0.1058741437817846</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>0</v>
+        <v>-0.01832652288488215</v>
       </c>
       <c r="E101" s="2" t="n"/>
       <c r="F101" s="2" t="n"/>
@@ -2193,20 +2213,428 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>-0.5</v>
+        <v>-0.404</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-0.1782399285714289</v>
+        <v>-0.1217998571428573</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-0.1782399285714289</v>
+        <v>-0.1062898816458623</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>0</v>
+        <v>-0.01550997549699497</v>
       </c>
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>-0.408</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>-0.1168682857142858</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>-0.10670561950994</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>-0.01016266620434586</v>
+      </c>
+      <c r="E103" s="2" t="n"/>
+      <c r="F103" s="2" t="n"/>
+      <c r="G103" s="2" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>-0.412</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>-0.1111396666666668</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>-0.1071213573740176</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>-0.004018309292649139</v>
+      </c>
+      <c r="E104" s="2" t="n"/>
+      <c r="F104" s="2" t="n"/>
+      <c r="G104" s="2" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>-0.416</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>-0.1075370952380953</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>-0.1075370952380953</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>-1.387778780781446e-17</v>
+      </c>
+      <c r="E105" s="2" t="n"/>
+      <c r="F105" s="2" t="n"/>
+      <c r="G105" s="2" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>-0.1138732857142858</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>-0.1099598258145364</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>-0.003913459899749394</v>
+      </c>
+      <c r="E106" s="2" t="n"/>
+      <c r="F106" s="2" t="n"/>
+      <c r="G106" s="2" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>-0.424</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>-0.1208727142857143</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>-0.1123825563909775</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>-0.008490157894736811</v>
+      </c>
+      <c r="E107" s="2" t="n"/>
+      <c r="F107" s="2" t="n"/>
+      <c r="G107" s="2" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>-0.428</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>-0.1289365238095238</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>-0.1148052869674186</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>-0.01413123684210524</v>
+      </c>
+      <c r="E108" s="2" t="n"/>
+      <c r="F108" s="2" t="n"/>
+      <c r="G108" s="2" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>-0.432</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>-0.126399</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>-0.1172280175438597</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>-0.009170982456140342</v>
+      </c>
+      <c r="E109" s="2" t="n"/>
+      <c r="F109" s="2" t="n"/>
+      <c r="G109" s="2" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>-0.436</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>-0.1356631904761905</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>-0.1196507481203008</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>-0.01601244235588975</v>
+      </c>
+      <c r="E110" s="2" t="n"/>
+      <c r="F110" s="2" t="n"/>
+      <c r="G110" s="2" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>-0.1267978571428572</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>-0.122073478696742</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>-0.004724378446115285</v>
+      </c>
+      <c r="E111" s="2" t="n"/>
+      <c r="F111" s="2" t="n"/>
+      <c r="G111" s="2" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>-0.444</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>-0.1287359523809525</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>-0.1244962092731831</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>-0.004239743107769423</v>
+      </c>
+      <c r="E112" s="2" t="n"/>
+      <c r="F112" s="2" t="n"/>
+      <c r="G112" s="2" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>-0.448</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>-0.1341414761904763</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>-0.1269189398496242</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>-0.007222536340852154</v>
+      </c>
+      <c r="E113" s="2" t="n"/>
+      <c r="F113" s="2" t="n"/>
+      <c r="G113" s="2" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>-0.452</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>-0.1320066190476192</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>-0.1293416704260653</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>-0.00266494862155392</v>
+      </c>
+      <c r="E114" s="2" t="n"/>
+      <c r="F114" s="2" t="n"/>
+      <c r="G114" s="2" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>-0.456</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>-0.1322694761904763</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>-0.1317644010025064</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>-0.0005050751879699389</v>
+      </c>
+      <c r="E115" s="2" t="n"/>
+      <c r="F115" s="2" t="n"/>
+      <c r="G115" s="2" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>-0.1386025238095239</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>-0.1341871315789475</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>-0.004415392230576409</v>
+      </c>
+      <c r="E116" s="2" t="n"/>
+      <c r="F116" s="2" t="n"/>
+      <c r="G116" s="2" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>-0.464</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>-0.1335329523809525</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>-0.1366098621553886</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>0.003076909774436115</v>
+      </c>
+      <c r="E117" s="2" t="n"/>
+      <c r="F117" s="2" t="n"/>
+      <c r="G117" s="2" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>-0.468</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>-0.1382611428571429</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>-0.1390325927318297</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>0.0007714498746867748</v>
+      </c>
+      <c r="E118" s="2" t="n"/>
+      <c r="F118" s="2" t="n"/>
+      <c r="G118" s="2" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>-0.472</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>-0.1473279047619049</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>-0.1414553233082708</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>-0.005872581453634035</v>
+      </c>
+      <c r="E119" s="2" t="n"/>
+      <c r="F119" s="2" t="n"/>
+      <c r="G119" s="2" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>-0.476</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>-0.152593761904762</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>-0.1438780538847119</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>-0.008715708020050117</v>
+      </c>
+      <c r="E120" s="2" t="n"/>
+      <c r="F120" s="2" t="n"/>
+      <c r="G120" s="2" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>-0.1601966190476192</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>-0.1463007844611531</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>-0.01389583458646609</v>
+      </c>
+      <c r="E121" s="2" t="n"/>
+      <c r="F121" s="2" t="n"/>
+      <c r="G121" s="2" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>-0.484</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>-0.1600658571428573</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>-0.1487235150375941</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>-0.01134234210526314</v>
+      </c>
+      <c r="E122" s="2" t="n"/>
+      <c r="F122" s="2" t="n"/>
+      <c r="G122" s="2" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>-0.488</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>-0.1562014761904763</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>-0.1511462456140352</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>-0.005055230576441055</v>
+      </c>
+      <c r="E123" s="2" t="n"/>
+      <c r="F123" s="2" t="n"/>
+      <c r="G123" s="2" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>-0.492</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>-0.1535689761904764</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>-0.1535689761904764</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" s="2" t="n"/>
+      <c r="F124" s="2" t="n"/>
+      <c r="G124" s="2" t="n"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>-0.496</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>-0.1589704047619051</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>-0.1589704047619051</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" s="2" t="n"/>
+      <c r="F125" s="2" t="n"/>
+      <c r="G125" s="2" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>-0.1782399285714291</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>-0.1782399285714291</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" s="2" t="n"/>
+      <c r="F126" s="2" t="n"/>
+      <c r="G126" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2219,7 +2647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2227,7 +2655,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="19" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="21" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
@@ -2245,34 +2673,74 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.012</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.03257754578754576</v>
+        <v>-0.05968395284327306</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.052</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.6880896959706964</v>
+        <v>-0.03843238372630592</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.092</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.0136228424908425</v>
+        <v>-0.0316662431807673</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>-0.132</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>-0.04824629311141922</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>-0.228</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>-0.6984619653259365</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>-0.328</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>-0.01847794729542301</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>-0.396</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>-0.02471030402930402</v>
+      <c r="B8" s="2" t="n">
+        <v>-0.02581373693943598</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>-0.436</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>-0.01601244235588975</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>-0.01389583458646609</v>
       </c>
     </row>
   </sheetData>
